--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEE8CB8-C1A4-4748-959E-240C6F0382CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C25CC6-FE90-4911-9CF9-96F44B796860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Pianificazione progetto</t>
   </si>
@@ -180,12 +180,39 @@
   <si>
     <t>REPORT</t>
   </si>
+  <si>
+    <t>ATTIVITA'</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>ESTIMATION</t>
+  </si>
+  <si>
+    <t>Funzionamento del sistema</t>
+  </si>
+  <si>
+    <t>I motori M1 e M3 hanno un offset di 390 rpm</t>
+  </si>
+  <si>
+    <t>Setup Esperimento</t>
+  </si>
+  <si>
+    <t>Acquisizione Dati</t>
+  </si>
+  <si>
+    <t>Data mining</t>
+  </si>
+  <si>
+    <t>Model estimation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -292,8 +319,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -421,6 +484,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -479,7 +557,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +662,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -607,7 +703,282 @@
     <cellStyle name="Titolo 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Valore periodo" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -997,7 +1368,7 @@
   <dimension ref="B1:BO9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1338,38 +1709,38 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:BO10">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>H$4=periodo_selezionato</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BO9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>PercentualeCompletamento</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>PercentualeCompletamentoOltre</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>Effettivo</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EffettivoOltre</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>Piano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>H$4=periodo_selezionato</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1409,26 +1780,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D479DC-1D38-4744-9004-207216494C05}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2A7E78-51AD-4BD3-BF62-5BC8456060F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="35"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1717,20 +2332,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4fc6cef2-cd46-4f4f-8b0b-7b6c3a83b23b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4fc6cef2-cd46-4f4f-8b0b-7b6c3a83b23b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1753,6 +2368,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5774AE42-8058-4462-99E4-8A7B0E35B65D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F08FE908-8F97-4E52-BCC7-5C103A876280}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1767,12 +2390,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5774AE42-8058-4462-99E4-8A7B0E35B65D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>